--- a/data/pca/factorExposure/factorExposure_2010-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-22.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.00360127514627092</v>
+        <v>0.01692910603270958</v>
       </c>
       <c r="C2">
-        <v>-0.01676833634859767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001053823513626388</v>
+      </c>
+      <c r="D2">
+        <v>0.00640259901929994</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003195117628911433</v>
+      </c>
+      <c r="F2">
+        <v>-0.01018074311855635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02605670300952526</v>
+        <v>0.0937946950647027</v>
       </c>
       <c r="C4">
-        <v>-0.1247040697234578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01597469688062807</v>
+      </c>
+      <c r="D4">
+        <v>0.08216706271135633</v>
+      </c>
+      <c r="E4">
+        <v>0.02825705079385203</v>
+      </c>
+      <c r="F4">
+        <v>0.03085498059997175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03457826861488585</v>
+        <v>0.1568386902842754</v>
       </c>
       <c r="C6">
-        <v>-0.1093651232190317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02530587055323115</v>
+      </c>
+      <c r="D6">
+        <v>-0.02357556936216309</v>
+      </c>
+      <c r="E6">
+        <v>0.008621876826532869</v>
+      </c>
+      <c r="F6">
+        <v>0.04668814546857696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.007943954370789107</v>
+        <v>0.06056841369991552</v>
       </c>
       <c r="C7">
-        <v>-0.07266496752341738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0007751822274052153</v>
+      </c>
+      <c r="D7">
+        <v>0.05202883091065964</v>
+      </c>
+      <c r="E7">
+        <v>0.01069463698711529</v>
+      </c>
+      <c r="F7">
+        <v>0.04288623452552748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002709173308803261</v>
+        <v>0.05829037099354065</v>
       </c>
       <c r="C8">
-        <v>-0.06370752276615479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01329188815030217</v>
+      </c>
+      <c r="D8">
+        <v>0.03177202462725136</v>
+      </c>
+      <c r="E8">
+        <v>0.01711461224272971</v>
+      </c>
+      <c r="F8">
+        <v>-0.02786760394027587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02215060113878919</v>
+        <v>0.07166446582639097</v>
       </c>
       <c r="C9">
-        <v>-0.09894200242704286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01180960900987398</v>
+      </c>
+      <c r="D9">
+        <v>0.08439327984194704</v>
+      </c>
+      <c r="E9">
+        <v>0.02331218701073534</v>
+      </c>
+      <c r="F9">
+        <v>0.04682537534153045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.008485446152116645</v>
+        <v>0.09400260441116458</v>
       </c>
       <c r="C10">
-        <v>-0.02583055914320032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01874188780991445</v>
+      </c>
+      <c r="D10">
+        <v>-0.1710758042551582</v>
+      </c>
+      <c r="E10">
+        <v>-0.03737736219093826</v>
+      </c>
+      <c r="F10">
+        <v>-0.05654199026703188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02572385443626087</v>
+        <v>0.08784497566292869</v>
       </c>
       <c r="C11">
-        <v>-0.1090720746287503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01148733094263324</v>
+      </c>
+      <c r="D11">
+        <v>0.1164184450149076</v>
+      </c>
+      <c r="E11">
+        <v>0.04772218239358047</v>
+      </c>
+      <c r="F11">
+        <v>0.02042271273878406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02267949040902396</v>
+        <v>0.09260551623292226</v>
       </c>
       <c r="C12">
-        <v>-0.1171284013415426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008906911496476851</v>
+      </c>
+      <c r="D12">
+        <v>0.1292015598849163</v>
+      </c>
+      <c r="E12">
+        <v>0.04714715125751831</v>
+      </c>
+      <c r="F12">
+        <v>0.02341632461205646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.006889407386642585</v>
+        <v>0.04272748770295096</v>
       </c>
       <c r="C13">
-        <v>-0.03730258944164831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003859213328540379</v>
+      </c>
+      <c r="D13">
+        <v>0.04907855850399594</v>
+      </c>
+      <c r="E13">
+        <v>-0.01055190897225752</v>
+      </c>
+      <c r="F13">
+        <v>0.00253989423612483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01508675487467342</v>
+        <v>0.02269538177842551</v>
       </c>
       <c r="C14">
-        <v>-0.02493627210183225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01406953714697561</v>
+      </c>
+      <c r="D14">
+        <v>0.03381501970407912</v>
+      </c>
+      <c r="E14">
+        <v>0.01747408282906217</v>
+      </c>
+      <c r="F14">
+        <v>0.01411557593626732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01000024163222661</v>
+        <v>0.03154831751563425</v>
       </c>
       <c r="C15">
-        <v>-0.02875124647738171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005198313632317695</v>
+      </c>
+      <c r="D15">
+        <v>0.04503537165104716</v>
+      </c>
+      <c r="E15">
+        <v>0.006895297486330258</v>
+      </c>
+      <c r="F15">
+        <v>0.02193080096810879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01493162028900777</v>
+        <v>0.07327981261919136</v>
       </c>
       <c r="C16">
-        <v>-0.1131351277065257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002378997267900848</v>
+      </c>
+      <c r="D16">
+        <v>0.1259731115630972</v>
+      </c>
+      <c r="E16">
+        <v>0.06255048709079758</v>
+      </c>
+      <c r="F16">
+        <v>0.02319817956405502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02766191412487865</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003477431007736184</v>
+      </c>
+      <c r="D18">
+        <v>0.02073463167968577</v>
+      </c>
+      <c r="E18">
+        <v>-0.006541716884602171</v>
+      </c>
+      <c r="F18">
+        <v>-0.008549081415141272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.009774006670514104</v>
+        <v>0.06054333211739497</v>
       </c>
       <c r="C20">
-        <v>-0.06887090566737396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0007636657279601267</v>
+      </c>
+      <c r="D20">
+        <v>0.07684945576216709</v>
+      </c>
+      <c r="E20">
+        <v>0.05634919664379926</v>
+      </c>
+      <c r="F20">
+        <v>0.0220556654466589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01153594410752181</v>
+        <v>0.03933585101901935</v>
       </c>
       <c r="C21">
-        <v>-0.01921655214934726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006497076444370479</v>
+      </c>
+      <c r="D21">
+        <v>0.03690020273846203</v>
+      </c>
+      <c r="E21">
+        <v>-0.005757137878565878</v>
+      </c>
+      <c r="F21">
+        <v>-0.02670871295746661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.003675902196262835</v>
+        <v>0.0446795406857366</v>
       </c>
       <c r="C22">
-        <v>-0.02851346233550452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0008664243540408084</v>
+      </c>
+      <c r="D22">
+        <v>0.002198456075908507</v>
+      </c>
+      <c r="E22">
+        <v>0.02858360574752115</v>
+      </c>
+      <c r="F22">
+        <v>-0.0331130772001632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.003665333889861831</v>
+        <v>0.04466454557192073</v>
       </c>
       <c r="C23">
-        <v>-0.02844393767510692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0008621847545884347</v>
+      </c>
+      <c r="D23">
+        <v>0.002203405887626477</v>
+      </c>
+      <c r="E23">
+        <v>0.02878550506834225</v>
+      </c>
+      <c r="F23">
+        <v>-0.03307782321263525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01510763637398032</v>
+        <v>0.07996337218202502</v>
       </c>
       <c r="C24">
-        <v>-0.1138263724427897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.003136994366195018</v>
+      </c>
+      <c r="D24">
+        <v>0.1198613064989233</v>
+      </c>
+      <c r="E24">
+        <v>0.05073051209102788</v>
+      </c>
+      <c r="F24">
+        <v>0.02402829907009273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02029951348407003</v>
+        <v>0.08506915712087</v>
       </c>
       <c r="C25">
-        <v>-0.1189166597134195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005294904121111631</v>
+      </c>
+      <c r="D25">
+        <v>0.1087676717175209</v>
+      </c>
+      <c r="E25">
+        <v>0.03358099542244465</v>
+      </c>
+      <c r="F25">
+        <v>0.02525939864226615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0214163636489089</v>
+        <v>0.05672529889230067</v>
       </c>
       <c r="C26">
-        <v>-0.04851876744082199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0145765475795467</v>
+      </c>
+      <c r="D26">
+        <v>0.04191896842897115</v>
+      </c>
+      <c r="E26">
+        <v>0.02813814485578463</v>
+      </c>
+      <c r="F26">
+        <v>-0.01059487775671892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.002358290646581517</v>
+        <v>0.140868858090939</v>
       </c>
       <c r="C28">
-        <v>-0.02052029695162444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01812976308973653</v>
+      </c>
+      <c r="D28">
+        <v>-0.2645043796955922</v>
+      </c>
+      <c r="E28">
+        <v>-0.06972100397349155</v>
+      </c>
+      <c r="F28">
+        <v>0.006984381518018877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01219180454696025</v>
+        <v>0.02696909250058776</v>
       </c>
       <c r="C29">
-        <v>-0.03095711269008865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008193854984289784</v>
+      </c>
+      <c r="D29">
+        <v>0.03343231697228706</v>
+      </c>
+      <c r="E29">
+        <v>0.01162543245380687</v>
+      </c>
+      <c r="F29">
+        <v>-0.01073274927132096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01365796282926344</v>
+        <v>0.06200113672453957</v>
       </c>
       <c r="C30">
-        <v>-0.1269801012863235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004658164212566606</v>
+      </c>
+      <c r="D30">
+        <v>0.08672441288068217</v>
+      </c>
+      <c r="E30">
+        <v>0.02063661487891603</v>
+      </c>
+      <c r="F30">
+        <v>0.08148879342054065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02129927580002594</v>
+        <v>0.04926526727661108</v>
       </c>
       <c r="C31">
-        <v>-0.03661366276864673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01536995401468131</v>
+      </c>
+      <c r="D31">
+        <v>0.02511786106771555</v>
+      </c>
+      <c r="E31">
+        <v>0.02741066297346931</v>
+      </c>
+      <c r="F31">
+        <v>-0.00289332659774383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006099167480122674</v>
+        <v>0.04923366691035992</v>
       </c>
       <c r="C32">
-        <v>-0.06086592860817482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001268310226356257</v>
+      </c>
+      <c r="D32">
+        <v>0.03651091656261148</v>
+      </c>
+      <c r="E32">
+        <v>0.03117342055906455</v>
+      </c>
+      <c r="F32">
+        <v>4.388045664104102e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02048781285414709</v>
+        <v>0.08991277566867988</v>
       </c>
       <c r="C33">
-        <v>-0.1185993773709038</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008780967231921009</v>
+      </c>
+      <c r="D33">
+        <v>0.09726289856707544</v>
+      </c>
+      <c r="E33">
+        <v>0.04475999301209855</v>
+      </c>
+      <c r="F33">
+        <v>0.03333073661445302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02278524865881955</v>
+        <v>0.06808333109217743</v>
       </c>
       <c r="C34">
-        <v>-0.1002779779584842</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01178271052615293</v>
+      </c>
+      <c r="D34">
+        <v>0.1052656176928856</v>
+      </c>
+      <c r="E34">
+        <v>0.03514477835128633</v>
+      </c>
+      <c r="F34">
+        <v>0.03221085592688006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.002800350670580179</v>
+        <v>0.02368204040681801</v>
       </c>
       <c r="C35">
-        <v>-0.01271215683056429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002429858501286169</v>
+      </c>
+      <c r="D35">
+        <v>0.01248457900611052</v>
+      </c>
+      <c r="E35">
+        <v>0.01155813535715671</v>
+      </c>
+      <c r="F35">
+        <v>0.0007295391123895312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0097864821298396</v>
+        <v>0.02568565647682485</v>
       </c>
       <c r="C36">
-        <v>-0.03015382518519091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007326057989904007</v>
+      </c>
+      <c r="D36">
+        <v>0.03949242418469293</v>
+      </c>
+      <c r="E36">
+        <v>0.01574949125916295</v>
+      </c>
+      <c r="F36">
+        <v>0.01445332604592401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006099899286744894</v>
+        <v>0.001524613331727628</v>
       </c>
       <c r="C38">
-        <v>-0.005304000880385478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002436201145300234</v>
+      </c>
+      <c r="D38">
+        <v>0.0006388907241356595</v>
+      </c>
+      <c r="E38">
+        <v>0.001150971126739557</v>
+      </c>
+      <c r="F38">
+        <v>-0.0005076603103994623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03617627610972168</v>
+        <v>0.1070745574403613</v>
       </c>
       <c r="C39">
-        <v>-0.1741364780558782</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.016999217377271</v>
+      </c>
+      <c r="D39">
+        <v>0.1528074792983717</v>
+      </c>
+      <c r="E39">
+        <v>0.05994531861055608</v>
+      </c>
+      <c r="F39">
+        <v>0.02879224182718838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009264626814379083</v>
+        <v>0.03945453072973248</v>
       </c>
       <c r="C40">
-        <v>-0.01013094416444298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007533985649481443</v>
+      </c>
+      <c r="D40">
+        <v>0.03190670228750735</v>
+      </c>
+      <c r="E40">
+        <v>0.002769913692312358</v>
+      </c>
+      <c r="F40">
+        <v>-0.01781520805135221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01117782393915191</v>
+        <v>0.02659404373723755</v>
       </c>
       <c r="C41">
-        <v>-0.02322564634718223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006558261862170743</v>
+      </c>
+      <c r="D41">
+        <v>0.01154737565608877</v>
+      </c>
+      <c r="E41">
+        <v>0.01279620788872652</v>
+      </c>
+      <c r="F41">
+        <v>-0.006849662654038561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01143142440237696</v>
+        <v>0.03976725720671438</v>
       </c>
       <c r="C43">
-        <v>-0.02480289331812083</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006770421869462866</v>
+      </c>
+      <c r="D43">
+        <v>0.0207320937755784</v>
+      </c>
+      <c r="E43">
+        <v>0.02505806716516758</v>
+      </c>
+      <c r="F43">
+        <v>-0.01251820111664244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.02928864792730177</v>
+        <v>0.0775782376453235</v>
       </c>
       <c r="C44">
-        <v>-0.1351102497548314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02111301081673635</v>
+      </c>
+      <c r="D44">
+        <v>0.09757037440291477</v>
+      </c>
+      <c r="E44">
+        <v>0.06639475986605539</v>
+      </c>
+      <c r="F44">
+        <v>0.1508782882888806</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00575068825011696</v>
+        <v>0.0241314862001853</v>
       </c>
       <c r="C46">
-        <v>-0.008470903939906413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003723736310943178</v>
+      </c>
+      <c r="D46">
+        <v>0.01315141515783587</v>
+      </c>
+      <c r="E46">
+        <v>0.0223691433192304</v>
+      </c>
+      <c r="F46">
+        <v>-0.002735937500772277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01173813898523326</v>
+        <v>0.05073778164999288</v>
       </c>
       <c r="C47">
-        <v>-0.04321645681522788</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003649886706738316</v>
+      </c>
+      <c r="D47">
+        <v>0.01252128221288912</v>
+      </c>
+      <c r="E47">
+        <v>0.02300633853661281</v>
+      </c>
+      <c r="F47">
+        <v>-0.0334605388338868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01109534769545425</v>
+        <v>0.04857799247932077</v>
       </c>
       <c r="C48">
-        <v>-0.04778495891867263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002644620962047798</v>
+      </c>
+      <c r="D48">
+        <v>0.05078732588942242</v>
+      </c>
+      <c r="E48">
+        <v>-0.00624843897258329</v>
+      </c>
+      <c r="F48">
+        <v>0.008573420990245953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03193378741749443</v>
+        <v>0.2021435221456116</v>
       </c>
       <c r="C49">
-        <v>-0.2058921124183104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01877703234987962</v>
+      </c>
+      <c r="D49">
+        <v>-0.01229578823624245</v>
+      </c>
+      <c r="E49">
+        <v>0.03051839132178612</v>
+      </c>
+      <c r="F49">
+        <v>0.03770627921002034</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01766514980123026</v>
+        <v>0.04947300707862625</v>
       </c>
       <c r="C50">
-        <v>-0.04311244412511063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01140134140223927</v>
+      </c>
+      <c r="D50">
+        <v>0.0242837014510035</v>
+      </c>
+      <c r="E50">
+        <v>0.02972879192032137</v>
+      </c>
+      <c r="F50">
+        <v>0.007548482700645177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0005131510332737884</v>
+        <v>0.001394454526191717</v>
       </c>
       <c r="C51">
-        <v>-0.004129468558126881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0003648500341430369</v>
+      </c>
+      <c r="D51">
+        <v>-0.001544521262278224</v>
+      </c>
+      <c r="E51">
+        <v>-3.729375870642686e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.00277179978407595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02635303792945627</v>
+        <v>0.1463812473388809</v>
       </c>
       <c r="C52">
-        <v>-0.1470900358340106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01502379754307094</v>
+      </c>
+      <c r="D52">
+        <v>0.04665283959204498</v>
+      </c>
+      <c r="E52">
+        <v>0.02082024353232781</v>
+      </c>
+      <c r="F52">
+        <v>0.04467877647108435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02420705501617394</v>
+        <v>0.1740346441520387</v>
       </c>
       <c r="C53">
-        <v>-0.1594018979985622</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01831375258854414</v>
+      </c>
+      <c r="D53">
+        <v>0.005457786246271294</v>
+      </c>
+      <c r="E53">
+        <v>0.03154252521263935</v>
+      </c>
+      <c r="F53">
+        <v>0.07611355050157904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01447565300678164</v>
+        <v>0.0215300871651078</v>
       </c>
       <c r="C54">
-        <v>-0.0481515160799826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01248611700277559</v>
+      </c>
+      <c r="D54">
+        <v>0.03291163810301612</v>
+      </c>
+      <c r="E54">
+        <v>0.01701315396939245</v>
+      </c>
+      <c r="F54">
+        <v>-0.003341977135319067</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0222409089658384</v>
+        <v>0.1142705829999592</v>
       </c>
       <c r="C55">
-        <v>-0.08863643259088362</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01635344749346309</v>
+      </c>
+      <c r="D55">
+        <v>0.009330290248100129</v>
+      </c>
+      <c r="E55">
+        <v>0.02809991406195192</v>
+      </c>
+      <c r="F55">
+        <v>0.04922170609959951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.02769832752935496</v>
+        <v>0.1784640021452572</v>
       </c>
       <c r="C56">
-        <v>-0.1614552103517868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01562915815098771</v>
+      </c>
+      <c r="D56">
+        <v>0.001900422728508066</v>
+      </c>
+      <c r="E56">
+        <v>0.03673530106110549</v>
+      </c>
+      <c r="F56">
+        <v>0.05506169682653915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.009653135789106468</v>
+        <v>0.04634732200607931</v>
       </c>
       <c r="C58">
-        <v>-0.04643727735791114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001275652155439187</v>
+      </c>
+      <c r="D58">
+        <v>0.0669821464212582</v>
+      </c>
+      <c r="E58">
+        <v>0.02752085197533005</v>
+      </c>
+      <c r="F58">
+        <v>-0.03962876516738878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.009924379707604191</v>
+        <v>0.1697193716602805</v>
       </c>
       <c r="C59">
-        <v>-0.07745548163448476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01883953826700683</v>
+      </c>
+      <c r="D59">
+        <v>-0.2216212850130689</v>
+      </c>
+      <c r="E59">
+        <v>-0.04576843716365309</v>
+      </c>
+      <c r="F59">
+        <v>-0.0329829926215187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.01886431338843136</v>
+        <v>0.2341653248987697</v>
       </c>
       <c r="C60">
-        <v>-0.2829582602716589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002936535427551904</v>
+      </c>
+      <c r="D60">
+        <v>0.03954796254194436</v>
+      </c>
+      <c r="E60">
+        <v>0.01096287406219356</v>
+      </c>
+      <c r="F60">
+        <v>-0.001675824674035572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02655394087103951</v>
+        <v>0.08316474641594186</v>
       </c>
       <c r="C61">
-        <v>-0.1321153065170834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01273596716116296</v>
+      </c>
+      <c r="D61">
+        <v>0.1162048017593847</v>
+      </c>
+      <c r="E61">
+        <v>0.03986807605275737</v>
+      </c>
+      <c r="F61">
+        <v>0.0124612676275789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03173530132095895</v>
+        <v>0.1702912125664899</v>
       </c>
       <c r="C62">
-        <v>-0.1680810955492117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01935210077016347</v>
+      </c>
+      <c r="D62">
+        <v>0.007064584890946871</v>
+      </c>
+      <c r="E62">
+        <v>0.03561440061639674</v>
+      </c>
+      <c r="F62">
+        <v>0.03707059032001989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01045249389286061</v>
+        <v>0.04361104027458482</v>
       </c>
       <c r="C63">
-        <v>-0.05627060796703169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002390790271448191</v>
+      </c>
+      <c r="D63">
+        <v>0.05815144499324274</v>
+      </c>
+      <c r="E63">
+        <v>0.02039231358639338</v>
+      </c>
+      <c r="F63">
+        <v>0.004606552902338986</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02076384347681516</v>
+        <v>0.1101333042805148</v>
       </c>
       <c r="C64">
-        <v>-0.1008512911142987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01176816715653923</v>
+      </c>
+      <c r="D64">
+        <v>0.0417563019658195</v>
+      </c>
+      <c r="E64">
+        <v>0.02267026909687012</v>
+      </c>
+      <c r="F64">
+        <v>0.0262295885622176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03651871946216569</v>
+        <v>0.1463577954550668</v>
       </c>
       <c r="C65">
-        <v>-0.1089564399466263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03206365248885351</v>
+      </c>
+      <c r="D65">
+        <v>-0.042036431924735</v>
+      </c>
+      <c r="E65">
+        <v>0.002628568126784075</v>
+      </c>
+      <c r="F65">
+        <v>0.03810190662432585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03380957371064754</v>
+        <v>0.1277415321023449</v>
       </c>
       <c r="C66">
-        <v>-0.2057194769261842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01497372317906926</v>
+      </c>
+      <c r="D66">
+        <v>0.1413475218843699</v>
+      </c>
+      <c r="E66">
+        <v>0.06799041290372491</v>
+      </c>
+      <c r="F66">
+        <v>0.03144397046098207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01414211624212889</v>
+        <v>0.0632489119170868</v>
       </c>
       <c r="C67">
-        <v>-0.06660127848376628</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003225918523309638</v>
+      </c>
+      <c r="D67">
+        <v>0.05539355044890677</v>
+      </c>
+      <c r="E67">
+        <v>0.01825062522738893</v>
+      </c>
+      <c r="F67">
+        <v>-0.03245302373203882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01298661897480492</v>
+        <v>0.1158944283203476</v>
       </c>
       <c r="C68">
-        <v>-0.02109371917722599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02804653757020587</v>
+      </c>
+      <c r="D68">
+        <v>-0.2596004537969567</v>
+      </c>
+      <c r="E68">
+        <v>-0.08756244534099325</v>
+      </c>
+      <c r="F68">
+        <v>0.004778854527747857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005482504416051984</v>
+        <v>0.03950538105145392</v>
       </c>
       <c r="C69">
-        <v>-0.03599815000743019</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.00124343150890621</v>
+      </c>
+      <c r="D69">
+        <v>0.007615541280243118</v>
+      </c>
+      <c r="E69">
+        <v>0.02341598382299167</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006434353493520802</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.002504249640157927</v>
+        <v>0.0632151118602758</v>
       </c>
       <c r="C70">
-        <v>-0.03463906322295242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0284286102088399</v>
+      </c>
+      <c r="D70">
+        <v>0.02770937753754572</v>
+      </c>
+      <c r="E70">
+        <v>-0.04211544691279306</v>
+      </c>
+      <c r="F70">
+        <v>-0.1869915398587217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01732622480570901</v>
+        <v>0.1350654584482555</v>
       </c>
       <c r="C71">
-        <v>-0.02381219637996825</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03289441430734082</v>
+      </c>
+      <c r="D71">
+        <v>-0.2736159396118392</v>
+      </c>
+      <c r="E71">
+        <v>-0.09726353479867966</v>
+      </c>
+      <c r="F71">
+        <v>0.01133371423397929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0323280218426707</v>
+        <v>0.1411847589020709</v>
       </c>
       <c r="C72">
-        <v>-0.1176467263542739</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02564903308417618</v>
+      </c>
+      <c r="D72">
+        <v>0.0009548559223060782</v>
+      </c>
+      <c r="E72">
+        <v>0.04036485931594699</v>
+      </c>
+      <c r="F72">
+        <v>0.03650998459798688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.0302372116564679</v>
+        <v>0.2011120452876547</v>
       </c>
       <c r="C73">
-        <v>-0.2089940980494203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01300492209936195</v>
+      </c>
+      <c r="D73">
+        <v>0.01347793511869234</v>
+      </c>
+      <c r="E73">
+        <v>0.06408763520113724</v>
+      </c>
+      <c r="F73">
+        <v>0.03939679555009926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01739976678811535</v>
+        <v>0.09484292957408395</v>
       </c>
       <c r="C74">
-        <v>-0.1157527713254678</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01305999382648526</v>
+      </c>
+      <c r="D74">
+        <v>0.01792849986889484</v>
+      </c>
+      <c r="E74">
+        <v>0.04471408350805912</v>
+      </c>
+      <c r="F74">
+        <v>0.05754794806753519</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.03695782063518114</v>
+        <v>0.1289449764832794</v>
       </c>
       <c r="C75">
-        <v>-0.1373448817008778</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02756154424814312</v>
+      </c>
+      <c r="D75">
+        <v>0.03004224832439775</v>
+      </c>
+      <c r="E75">
+        <v>0.05886665919021785</v>
+      </c>
+      <c r="F75">
+        <v>0.01953117134153873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004081666791935709</v>
+        <v>0.001343802291643292</v>
       </c>
       <c r="C76">
-        <v>-0.004836821791305757</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003592716530236978</v>
+      </c>
+      <c r="D76">
+        <v>-0.001031440810441022</v>
+      </c>
+      <c r="E76">
+        <v>0.0003475099466547651</v>
+      </c>
+      <c r="F76">
+        <v>0.001775199482719398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02036737127883208</v>
+        <v>0.08136815255407386</v>
       </c>
       <c r="C77">
-        <v>-0.1074587901770306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008444135923460178</v>
+      </c>
+      <c r="D77">
+        <v>0.1188076530291126</v>
+      </c>
+      <c r="E77">
+        <v>0.0410876391908305</v>
+      </c>
+      <c r="F77">
+        <v>0.02699048501600467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04712142246553254</v>
+        <v>0.1017119187495681</v>
       </c>
       <c r="C78">
-        <v>-0.1257962958546747</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03972063791282589</v>
+      </c>
+      <c r="D78">
+        <v>0.1164422537421251</v>
+      </c>
+      <c r="E78">
+        <v>0.07899077012575062</v>
+      </c>
+      <c r="F78">
+        <v>0.0446373341812023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03135759129511691</v>
+        <v>0.164730511336525</v>
       </c>
       <c r="C79">
-        <v>-0.1467313577058846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02177349805517058</v>
+      </c>
+      <c r="D79">
+        <v>0.01662997415528768</v>
+      </c>
+      <c r="E79">
+        <v>0.04756744027065727</v>
+      </c>
+      <c r="F79">
+        <v>0.01462162032699508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.004701308163238678</v>
+        <v>0.08156142623330519</v>
       </c>
       <c r="C80">
-        <v>-0.09587820866052914</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0004492566107583994</v>
+      </c>
+      <c r="D80">
+        <v>0.0571481503654363</v>
+      </c>
+      <c r="E80">
+        <v>0.0357700195365443</v>
+      </c>
+      <c r="F80">
+        <v>-0.02571786033076385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.03872145186522965</v>
+        <v>0.1230729982818712</v>
       </c>
       <c r="C81">
-        <v>-0.152623143177739</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03146767910222758</v>
+      </c>
+      <c r="D81">
+        <v>0.01532469511284824</v>
+      </c>
+      <c r="E81">
+        <v>0.05925043875907843</v>
+      </c>
+      <c r="F81">
+        <v>0.01877549075296536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03272985015461104</v>
+        <v>0.1653137801506523</v>
       </c>
       <c r="C82">
-        <v>-0.1666780969707815</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02405487277463651</v>
+      </c>
+      <c r="D82">
+        <v>0.004742234769933075</v>
+      </c>
+      <c r="E82">
+        <v>0.02846516509080652</v>
+      </c>
+      <c r="F82">
+        <v>0.08100381292775789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01638726501152275</v>
+        <v>0.06130623372232007</v>
       </c>
       <c r="C83">
-        <v>-0.07692731078527665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003360773269970865</v>
+      </c>
+      <c r="D83">
+        <v>0.04968573431967269</v>
+      </c>
+      <c r="E83">
+        <v>0.005886257579976894</v>
+      </c>
+      <c r="F83">
+        <v>-0.03251421941923279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02345285846071019</v>
+        <v>0.05805303647309235</v>
       </c>
       <c r="C84">
-        <v>-0.0724559627202073</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01102586765274332</v>
+      </c>
+      <c r="D84">
+        <v>0.06571713010133486</v>
+      </c>
+      <c r="E84">
+        <v>0.007117515503639037</v>
+      </c>
+      <c r="F84">
+        <v>0.005828580955840176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.0334896961333965</v>
+        <v>0.1379279299374949</v>
       </c>
       <c r="C85">
-        <v>-0.121555824797914</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02738997981901303</v>
+      </c>
+      <c r="D85">
+        <v>0.01052924356114682</v>
+      </c>
+      <c r="E85">
+        <v>0.03934617222619773</v>
+      </c>
+      <c r="F85">
+        <v>0.04720912835375077</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.008130108021482885</v>
+        <v>0.09621639495317084</v>
       </c>
       <c r="C86">
-        <v>-0.1147030748255973</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006675018355148877</v>
+      </c>
+      <c r="D86">
+        <v>0.04054306348292942</v>
+      </c>
+      <c r="E86">
+        <v>0.2103171933274266</v>
+      </c>
+      <c r="F86">
+        <v>-0.9088480028764001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03733930155873577</v>
+        <v>0.09599026761881928</v>
       </c>
       <c r="C87">
-        <v>-0.111791655785665</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02150474315469953</v>
+      </c>
+      <c r="D87">
+        <v>0.09244460316709051</v>
+      </c>
+      <c r="E87">
+        <v>-0.05303051964696276</v>
+      </c>
+      <c r="F87">
+        <v>0.05087761885959276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01126659477841792</v>
+        <v>0.06092697334936371</v>
       </c>
       <c r="C88">
-        <v>-0.05797256249705904</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002601706942414694</v>
+      </c>
+      <c r="D88">
+        <v>0.04998515639873762</v>
+      </c>
+      <c r="E88">
+        <v>0.02506869683593484</v>
+      </c>
+      <c r="F88">
+        <v>0.01345756674424538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-9.13629899757875e-05</v>
+        <v>0.132929869495892</v>
       </c>
       <c r="C89">
-        <v>-0.04384870423938378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01027526044477089</v>
+      </c>
+      <c r="D89">
+        <v>-0.25102997291224</v>
+      </c>
+      <c r="E89">
+        <v>-0.09072168128703341</v>
+      </c>
+      <c r="F89">
+        <v>-0.006081326038474671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01778637337726311</v>
+        <v>0.1473963621825048</v>
       </c>
       <c r="C90">
-        <v>-0.02769937133401134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02864827980781939</v>
+      </c>
+      <c r="D90">
+        <v>-0.2663038627749301</v>
+      </c>
+      <c r="E90">
+        <v>-0.1118348015871679</v>
+      </c>
+      <c r="F90">
+        <v>-0.003706195783652016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.01892899287263609</v>
+        <v>0.119556766178377</v>
       </c>
       <c r="C91">
-        <v>-0.09254422954765851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.0180743161121662</v>
+      </c>
+      <c r="D91">
+        <v>-0.01162484570847108</v>
+      </c>
+      <c r="E91">
+        <v>0.0571616162494276</v>
+      </c>
+      <c r="F91">
+        <v>-0.0009426406861736399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0006294026425756218</v>
+        <v>0.1464044945732098</v>
       </c>
       <c r="C92">
-        <v>-0.04059686290773225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02080493009528906</v>
+      </c>
+      <c r="D92">
+        <v>-0.2908992597482543</v>
+      </c>
+      <c r="E92">
+        <v>-0.10228223352328</v>
+      </c>
+      <c r="F92">
+        <v>-0.01511767339800248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01209442631694093</v>
+        <v>0.1505065937448034</v>
       </c>
       <c r="C93">
-        <v>-0.03111700208159205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02474643941736571</v>
+      </c>
+      <c r="D93">
+        <v>-0.2663246369211212</v>
+      </c>
+      <c r="E93">
+        <v>-0.07856585872003956</v>
+      </c>
+      <c r="F93">
+        <v>0.002841019240452051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03573734928362158</v>
+        <v>0.1319530772764498</v>
       </c>
       <c r="C94">
-        <v>-0.1621073525422744</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0245032380125632</v>
+      </c>
+      <c r="D94">
+        <v>0.04336300721017044</v>
+      </c>
+      <c r="E94">
+        <v>0.05870486798382957</v>
+      </c>
+      <c r="F94">
+        <v>0.03674236389792935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02154547658858109</v>
+        <v>0.1254820633562088</v>
       </c>
       <c r="C95">
-        <v>-0.1446211495012004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004632330019918089</v>
+      </c>
+      <c r="D95">
+        <v>0.09152573430373065</v>
+      </c>
+      <c r="E95">
+        <v>0.04694203701815833</v>
+      </c>
+      <c r="F95">
+        <v>-0.01040125529598858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9813240480640043</v>
+        <v>0.1037760668700839</v>
       </c>
       <c r="C96">
-        <v>-0.1707681346973942</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9881125555459347</v>
+      </c>
+      <c r="D96">
+        <v>-0.03843605924708207</v>
+      </c>
+      <c r="E96">
+        <v>0.05666786329304349</v>
+      </c>
+      <c r="F96">
+        <v>0.04320220530693675</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.001092320383162185</v>
+        <v>0.1911934500527854</v>
       </c>
       <c r="C97">
-        <v>-0.1762298909040313</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008699579096741683</v>
+      </c>
+      <c r="D97">
+        <v>-0.01706130809914161</v>
+      </c>
+      <c r="E97">
+        <v>0.01458737762392095</v>
+      </c>
+      <c r="F97">
+        <v>-0.09355851576129531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02152471844218951</v>
+        <v>0.206163977659182</v>
       </c>
       <c r="C98">
-        <v>-0.1966034392889578</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007462419804772908</v>
+      </c>
+      <c r="D98">
+        <v>0.006858159772196177</v>
+      </c>
+      <c r="E98">
+        <v>-0.08670312325978879</v>
+      </c>
+      <c r="F98">
+        <v>-0.09465131462735391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.002887476056500633</v>
+        <v>0.0558169813446954</v>
       </c>
       <c r="C99">
-        <v>-0.05700913210008459</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004374937787343237</v>
+      </c>
+      <c r="D99">
+        <v>0.03890601439391017</v>
+      </c>
+      <c r="E99">
+        <v>0.02387984541170933</v>
+      </c>
+      <c r="F99">
+        <v>0.0009850790118934689</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.007729275933764091</v>
+        <v>0.1270349060513687</v>
       </c>
       <c r="C100">
-        <v>-0.134578109686305</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05269783060142631</v>
+      </c>
+      <c r="D100">
+        <v>0.3498087291594756</v>
+      </c>
+      <c r="E100">
+        <v>-0.8870226342233097</v>
+      </c>
+      <c r="F100">
+        <v>-0.1355877894025671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0122143968714564</v>
+        <v>0.02689048361989249</v>
       </c>
       <c r="C101">
-        <v>-0.03093193930672873</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008201438353115495</v>
+      </c>
+      <c r="D101">
+        <v>0.0331416550273025</v>
+      </c>
+      <c r="E101">
+        <v>0.01106448746212894</v>
+      </c>
+      <c r="F101">
+        <v>-0.01197217601597619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
